--- a/LonLat.xlsx
+++ b/LonLat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihreimpulse.sharepoint.com/sites/SharedDrive/Freigegebene Dokumente/02 Projekte/Deutsche Bahn/Power BI Expert Sessions/Daten/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{24280FA8-78B5-417C-9ED6-E2B15A61193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907474A3-3D23-4DB5-93B1-14115765F939}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{24280FA8-78B5-417C-9ED6-E2B15A61193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869DBC3F-6BA5-4964-81E9-7DDCFD7AEE31}"/>
   <bookViews>
     <workbookView xWindow="24855" yWindow="-32595" windowWidth="29040" windowHeight="15720" xr2:uid="{EE8CEAE0-8F33-4B56-92AA-D2D815434A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Stadt</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Frankfurt (Oder)</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E25BF7-D6DC-494C-9494-3EBE4C5CBB09}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -674,21 +677,26 @@
         <v>52.335999999999999</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>9.1821999999999999</v>
+      </c>
+      <c r="D15">
+        <v>48.783200000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010085C596AF1B3C414984AA18FB2ECCC297" ma:contentTypeVersion="20" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1c3cc50058aa4820362c938f54ac7567">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c73a7739-ffb5-4fef-b166-4f8774c35c3e" xmlns:ns3="9f6c7e6f-ceed-4cfd-a6d9-b79455156d09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c951f5694abcdfa20d70bea7368b579" ns2:_="" ns3:_="">
     <xsd:import namespace="c73a7739-ffb5-4fef-b166-4f8774c35c3e"/>
@@ -957,6 +965,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -970,14 +987,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3B6810-609F-4738-A365-05E53485282A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E08B4F6-592D-4C30-B932-1DA7C1D42638}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -996,13 +1005,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3B6810-609F-4738-A365-05E53485282A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C38C22B-155E-4B95-8E71-E7BB85E4B039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="c73a7739-ffb5-4fef-b166-4f8774c35c3e"/>
     <ds:schemaRef ds:uri="9f6c7e6f-ceed-4cfd-a6d9-b79455156d09"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>